--- a/biology/Médecine/Classification_de_Tanner/Classification_de_Tanner.xlsx
+++ b/biology/Médecine/Classification_de_Tanner/Classification_de_Tanner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de Tanner, aussi appelé score, ou échelle de Tanner  a été créé par James Mourilyan Tanner en 1962. Elle permet de coter l'avancement physiologique au cours de la puberté.
 La classification de Tanner et Whitehouse considère :
@@ -516,7 +528,9 @@
           <t>Filles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tanner I
 stade prépubère sans tissu glandulaire et développement mammaire, l'aréole suivant les contours de la peau du sein
@@ -555,7 +569,9 @@
           <t>Garçons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanner I
 Testicules, scrotum et pénis de taille prépubère. Absence de pilosité pubienne ; un fin duvet couvre la zone génitale.
